--- a/Figures/SI_Fig8/SI_Fig8_experimental_data.xlsx
+++ b/Figures/SI_Fig8/SI_Fig8_experimental_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Figures/SI_Fig_Growthrates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/GitHub/Figures/SI_Fig8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA6873C-8F96-3F4F-A056-31C96C9130E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDAD39E-E9A7-4241-ABEE-5543AAF81A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28080" windowHeight="17500" xr2:uid="{4677DA21-11B7-3F4F-A066-EBA983D9E338}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -124,21 +124,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Weird shaped colony/multiple colonies</t>
-  </si>
-  <si>
-    <t>Weird colony</t>
-  </si>
-  <si>
-    <t>Werid colony</t>
-  </si>
-  <si>
-    <t>-5 dilution</t>
-  </si>
-  <si>
-    <t>-6 dilution</t>
   </si>
 </sst>
 </file>
@@ -729,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF47921B-4B5B-2D41-B25C-2DF8CEDFF90D}">
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R142" sqref="R142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7310,7 +7295,7 @@
         <v>109800000</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>44419</v>
       </c>
@@ -7366,7 +7351,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="20">
         <f t="shared" ref="A114:B114" si="140">A112</f>
         <v>44419</v>
@@ -7424,7 +7409,7 @@
         <v>800000000</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="20">
         <f t="shared" ref="A115:B116" si="143">A113</f>
         <v>44419</v>
@@ -7483,7 +7468,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="20">
         <f t="shared" si="143"/>
         <v>44419</v>
@@ -7542,7 +7527,7 @@
         <v>900000000</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="20">
         <f t="shared" ref="A117:B118" si="146">A114</f>
         <v>44419</v>
@@ -7601,7 +7586,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
         <f t="shared" si="146"/>
         <v>44419</v>
@@ -7660,7 +7645,7 @@
         <v>740000000</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="26">
         <f t="shared" ref="A119:B120" si="147">A118</f>
         <v>44419</v>
@@ -7719,7 +7704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="26">
         <f t="shared" si="147"/>
         <v>44419</v>
@@ -7778,7 +7763,7 @@
         <v>2130000000</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="26">
         <f t="shared" ref="A121:B122" si="151">A119</f>
         <v>44419</v>
@@ -7837,7 +7822,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="26">
         <f t="shared" si="151"/>
         <v>44419</v>
@@ -7896,7 +7881,7 @@
         <v>1380000000</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="26">
         <f t="shared" ref="A123:B124" si="154">A120</f>
         <v>44419</v>
@@ -7954,11 +7939,8 @@
         <f t="shared" si="153"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R123" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="26">
         <f t="shared" si="154"/>
         <v>44419</v>
@@ -8017,7 +7999,7 @@
         <v>2280000000</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="20">
         <f t="shared" ref="A125:B126" si="155">A124</f>
         <v>44419</v>
@@ -8076,7 +8058,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="20">
         <f t="shared" si="155"/>
         <v>44419</v>
@@ -8135,7 +8117,7 @@
         <v>257200000</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="20">
         <f t="shared" ref="A127:B128" si="158">A125</f>
         <v>44419</v>
@@ -8194,7 +8176,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="20">
         <f t="shared" si="158"/>
         <v>44419</v>
@@ -8253,7 +8235,7 @@
         <v>241600000</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="20">
         <f t="shared" ref="A129:B130" si="161">A126</f>
         <v>44419</v>
@@ -8312,7 +8294,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <f t="shared" si="161"/>
         <v>44419</v>
@@ -8371,7 +8353,7 @@
         <v>231200000</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>44419</v>
       </c>
@@ -8427,7 +8409,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
         <f t="shared" ref="A132:B132" si="162">A130</f>
         <v>44419</v>
@@ -8485,7 +8467,7 @@
         <v>940000000</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="20">
         <f t="shared" ref="A133:B134" si="165">A131</f>
         <v>44419</v>
@@ -8544,7 +8526,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="20">
         <f t="shared" si="165"/>
         <v>44419</v>
@@ -8603,7 +8585,7 @@
         <v>800000000</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="20">
         <f>A132</f>
         <v>44419</v>
@@ -8662,7 +8644,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="20">
         <f>A133</f>
         <v>44419</v>
@@ -8721,7 +8703,7 @@
         <v>1080000000</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="26">
         <f t="shared" ref="A137:B138" si="170">A136</f>
         <v>44419</v>
@@ -8780,7 +8762,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="26">
         <f t="shared" si="170"/>
         <v>44419</v>
@@ -8838,11 +8820,8 @@
         <f t="shared" ref="Q138" si="173">P138*(1000/J138)^(I138+1)</f>
         <v>1860000000</v>
       </c>
-      <c r="R138" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="26">
         <f t="shared" ref="A139:B140" si="174">A137</f>
         <v>44419</v>
@@ -8901,7 +8880,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="26">
         <f t="shared" si="174"/>
         <v>44419</v>
@@ -8959,11 +8938,8 @@
         <f t="shared" ref="Q140:Q141" si="176">P140*(1000/J140)^(I140+1)</f>
         <v>1670000000</v>
       </c>
-      <c r="R140" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="26">
         <f t="shared" ref="A141:B142" si="177">A138</f>
         <v>44419</v>
@@ -9022,7 +8998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="26">
         <f t="shared" si="177"/>
         <v>44419</v>
@@ -9081,7 +9057,7 @@
         <v>2640000000</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="20">
         <f t="shared" ref="A143:B144" si="178">A142</f>
         <v>44419</v>
@@ -9140,7 +9116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="20">
         <f t="shared" si="178"/>
         <v>44419</v>
@@ -9199,7 +9175,7 @@
         <v>471000000</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="20">
         <f t="shared" ref="A145:B146" si="181">A143</f>
         <v>44419</v>
@@ -9258,7 +9234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="20">
         <f t="shared" si="181"/>
         <v>44419</v>
@@ -9317,7 +9293,7 @@
         <v>335000000</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="20">
         <f t="shared" ref="A147:B148" si="184">A144</f>
         <v>44419</v>
@@ -9376,7 +9352,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
         <f t="shared" si="184"/>
         <v>44419</v>
@@ -9435,7 +9411,7 @@
         <v>318000000</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>44419</v>
       </c>
@@ -9491,7 +9467,7 @@
         <v>1160000000</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="20">
         <f t="shared" ref="A150:B150" si="186">A148</f>
         <v>44419</v>
@@ -9549,7 +9525,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="20">
         <f t="shared" ref="A151:B152" si="189">A149</f>
         <v>44419</v>
@@ -9608,7 +9584,7 @@
         <v>900000000</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="20">
         <f t="shared" si="189"/>
         <v>44419</v>
@@ -9667,7 +9643,7 @@
         <v>900000000</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="20">
         <f t="shared" ref="A153:B154" si="192">A150</f>
         <v>44419</v>
@@ -9726,7 +9702,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="20">
         <f t="shared" si="192"/>
         <v>44419</v>
@@ -9785,7 +9761,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="26">
         <f t="shared" ref="A155:B156" si="193">A154</f>
         <v>44419</v>
@@ -9843,11 +9819,8 @@
         <f t="shared" si="116"/>
         <v>1260000000</v>
       </c>
-      <c r="R155" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="26">
         <f t="shared" si="193"/>
         <v>44419</v>
@@ -9905,11 +9878,8 @@
         <f t="shared" ref="Q156" si="196">P156*(1000/J156)^(I156+1)</f>
         <v>1200000000</v>
       </c>
-      <c r="R156" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="26">
         <f t="shared" ref="A157:B158" si="197">A155</f>
         <v>44419</v>
@@ -9967,11 +9937,8 @@
         <f t="shared" si="116"/>
         <v>1450000000</v>
       </c>
-      <c r="R157" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="26">
         <f t="shared" si="197"/>
         <v>44419</v>
@@ -10029,11 +9996,8 @@
         <f t="shared" ref="Q158:Q159" si="199">P158*(1000/J158)^(I158+1)</f>
         <v>1500000000</v>
       </c>
-      <c r="R158" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="26">
         <f t="shared" ref="A159:B160" si="200">A156</f>
         <v>44419</v>
@@ -10091,11 +10055,8 @@
         <f t="shared" si="199"/>
         <v>1460000000</v>
       </c>
-      <c r="R159" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="26">
         <f t="shared" si="200"/>
         <v>44419</v>
@@ -10152,9 +10113,6 @@
       <c r="Q160" s="29">
         <f t="shared" si="116"/>
         <v>1700000000</v>
-      </c>
-      <c r="R160" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
